--- a/참고문서/IOCP 채팅서버 패킷설계.xlsx
+++ b/참고문서/IOCP 채팅서버 패킷설계.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totol\Desktop\ChattingServer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totol\Desktop\ChattingServer\참고문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B868B79B-7254-433D-B514-3025639D14B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FB788F86-B39A-439E-8F28-F33C3BAD731F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" xr2:uid="{D9DFE31C-F1BC-47CA-9267-43BFB3593CC7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="101">
   <si>
     <t>흐름</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -298,10 +298,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PK_ANS_WAITINGCHANNAL_CHANNAL_JOINL(채널 들어가기 답장), 헤더번호:10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PK_ANS_WAITINGCHANNAL_CHANNAL_JOIN</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -415,6 +411,22 @@
   </si>
   <si>
     <t xml:space="preserve"> 한진욱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_NONE(TEST), 헤더번호:0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_ANS_WAITINGCHANNAL_CHANNAL_JOIN(채널 들어가기 답장), 헤더번호:10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -494,6 +506,43 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -517,7 +566,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -527,11 +576,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -849,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BDCE81-4F2B-4799-B5CB-67339998E8C9}">
-  <dimension ref="A2:F105"/>
+  <dimension ref="A2:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -863,23 +924,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="5"/>
       <c r="F2" t="s">
-        <v>97</v>
-      </c>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="A4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -922,8 +987,8 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
+      <c r="C7" s="1">
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
@@ -931,304 +996,276 @@
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <v>4</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
         <v>4</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="D20" s="1">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>11</v>
-      </c>
+        <f>SUM(D15:D20)</f>
+        <v>46</v>
+      </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="1"/>
+      <c r="A23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B24" s="1" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
         <v>4</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D25" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
@@ -1238,7 +1275,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1251,357 +1288,347 @@
         <v>15</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1">
+        <f>SUM(D24:D29)</f>
+        <v>32</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="A32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1">
-        <v>4</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="1">
-        <v>4</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D34" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
         <v>4</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="D36" s="1">
+        <v>15</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1">
+        <v>4</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="1">
         <v>4</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="D40" s="1">
+        <v>15</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
-        <v>4</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>11</v>
-      </c>
+        <f>SUM(D33:D40)</f>
+        <v>65</v>
+      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="1">
-        <v>4</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="1"/>
+      <c r="A43" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B44" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="D45" s="1">
         <v>4</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1">
+        <f>SUM(D44:D47)</f>
+        <v>13</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1">
-        <v>4</v>
-      </c>
-      <c r="E50" s="1" t="s">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1">
+        <v>4</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="1">
-        <v>4</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="D52" s="1">
         <v>4</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1">
-        <v>15</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="D54" s="1">
+        <f>SUM(D51:D52)</f>
+        <v>8</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
+      <c r="A55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
@@ -1625,7 +1652,7 @@
         <v>8</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D57" s="1">
         <v>4</v>
@@ -1648,7 +1675,7 @@
         <v>21</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1664,99 +1691,105 @@
         <v>12</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="D60" s="1">
+        <v>4</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1">
+        <v>64</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1">
-        <v>4</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1">
+        <f>SUM(D56:D61)</f>
+        <v>81</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1">
+        <v>4</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63" s="1">
-        <v>4</v>
-      </c>
-      <c r="E63" s="1" t="s">
+      <c r="C66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="1">
+        <v>4</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1">
-        <v>4</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
+      <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1">
@@ -1765,159 +1798,149 @@
       <c r="E67" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C68" s="1"/>
       <c r="D68" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1">
-        <v>1</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1">
-        <v>4</v>
-      </c>
-      <c r="E70" s="1" t="s">
+        <f>SUM(D65:D68)</f>
+        <v>27</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1">
+        <v>4</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" s="1">
+        <v>4</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1">
-        <v>4</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C74" s="1"/>
       <c r="D74" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1">
         <v>4</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="1">
-        <v>64</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="D77" s="1">
+        <f>SUM(D72:D75)</f>
+        <v>13</v>
+      </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
+      <c r="A78" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>7</v>
@@ -1937,7 +1960,7 @@
         <v>8</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D80" s="1">
         <v>4</v>
@@ -1950,7 +1973,7 @@
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1">
@@ -1960,348 +1983,649 @@
         <v>11</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="1">
-        <v>15</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1">
-        <v>4</v>
-      </c>
-      <c r="E83" s="1" t="s">
+        <f>SUM(D79:D81)</f>
+        <v>12</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1">
+        <v>4</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1">
-        <v>64</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" s="1">
+        <v>4</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C88" s="1"/>
       <c r="D88" s="1">
         <v>4</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1">
+        <f>SUM(D85:D88)</f>
+        <v>13</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B91" s="1" t="s">
+      <c r="A91" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1">
-        <v>4</v>
-      </c>
-      <c r="E91" s="1" t="s">
+      <c r="C92" s="1"/>
+      <c r="D92" s="1">
+        <v>4</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D92" s="1">
-        <v>4</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C93" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D93" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1">
         <v>4</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
+      <c r="B95" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="D95" s="1">
+        <v>64</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" s="1" t="s">
+      <c r="A97" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1">
-        <v>4</v>
-      </c>
-      <c r="E97" s="1" t="s">
+      <c r="C98" s="1"/>
+      <c r="D98" s="1">
+        <v>4</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D98" s="1">
-        <v>4</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
+      <c r="B99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D99" s="1">
+        <v>4</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
+      <c r="A100" s="1"/>
+      <c r="B100" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1">
+        <v>4</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C102" s="1"/>
       <c r="D102" s="1">
         <v>4</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
-      <c r="B104" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="1">
-        <v>4</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
+      <c r="D105" s="1">
+        <f>SUM(D98:D103)</f>
+        <v>95</v>
+      </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1">
+        <v>4</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D108" s="1">
+        <v>4</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1">
+        <f>SUM(D107:D108)</f>
+        <v>8</v>
+      </c>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1">
+        <v>4</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D113" s="1">
+        <v>4</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1">
+        <v>1</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1">
+        <v>4</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1">
+        <f>SUM(D112:D115)</f>
+        <v>13</v>
+      </c>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1">
+        <v>4</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D120" s="1">
+        <v>4</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1">
+        <f>SUM(D119:D120)</f>
+        <v>8</v>
+      </c>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1">
+        <v>4</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D125" s="1">
+        <v>4</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1">
+        <v>1</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1">
+        <v>4</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1">
+        <f>SUM(D124:D127)</f>
+        <v>13</v>
+      </c>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A100:F100"/>
+  <mergeCells count="18">
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A123:F123"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A71:F71"/>
     <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A23:F23"/>
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A32:F32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/참고문서/IOCP 채팅서버 패킷설계.xlsx
+++ b/참고문서/IOCP 채팅서버 패킷설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totol\Desktop\ChattingServer\참고문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FB788F86-B39A-439E-8F28-F33C3BAD731F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{61F74274-2D25-4C75-91BA-D08172073D11}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" xr2:uid="{D9DFE31C-F1BC-47CA-9267-43BFB3593CC7}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" xr2:uid="{D9DFE31C-F1BC-47CA-9267-43BFB3593CC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="127">
   <si>
     <t>흐름</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -427,6 +427,107 @@
   </si>
   <si>
     <t>PK_ANS_WAITINGCHANNAL_CHANNAL_JOIN(채널 들어가기 답장), 헤더번호:10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동방향 X</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동방향 Y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Velocity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acceleration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_SEND_MOVE_START</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_SEND_MOVE_START(이동 시작 보내기), 헤더번호:17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_RECV_MOVE_START(이동 시작 받기), 헤더번호:18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_SEND_MOVE_END(이동 끝 보내기), 헤더번호:19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_SEND_MOVE_END</t>
+  </si>
+  <si>
+    <t>위치 X</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치 Y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_RECV_MOVE_END(이동 끝 받기), 헤더번호:20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_RECV_MOVE_START</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_RECV_MOVE_END</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_SEND_LOCATION_RENEWAL</t>
+  </si>
+  <si>
+    <t>PK_SEND_LOCATION_RENEWAL(위치 갱신 보내기), 헤더번호:21</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_RECV_LOCATION_RENEWAL(위치 갱신 받기), 헤더번호:21</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_RECV_LOCATION_RENEWAL</t>
+  </si>
+  <si>
+    <t>LocationX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocationY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirectionX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirectionY</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +595,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -554,6 +655,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -566,7 +691,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -579,11 +704,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -910,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BDCE81-4F2B-4799-B5CB-67339998E8C9}">
-  <dimension ref="A2:F129"/>
+  <dimension ref="A2:F191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -924,10 +1058,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="7"/>
       <c r="F2" t="s">
         <v>96</v>
       </c>
@@ -937,14 +1071,14 @@
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1045,14 +1179,14 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -1189,14 +1323,14 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -1313,14 +1447,14 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -1469,14 +1603,14 @@
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -1561,14 +1695,14 @@
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
@@ -1621,14 +1755,14 @@
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
@@ -1745,14 +1879,14 @@
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
@@ -1837,14 +1971,14 @@
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -1929,14 +2063,14 @@
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
@@ -2005,14 +2139,14 @@
       <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
@@ -2097,14 +2231,14 @@
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
@@ -2179,14 +2313,14 @@
       <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
@@ -2303,14 +2437,14 @@
       <c r="F105" s="1"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
@@ -2363,14 +2497,14 @@
       <c r="F110" s="1"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
@@ -2455,14 +2589,14 @@
       <c r="F117" s="1"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
@@ -2515,14 +2649,14 @@
       <c r="F122" s="1"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
@@ -2606,8 +2740,894 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1">
+        <v>4</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D132" s="1">
+        <v>4</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1">
+        <v>4</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1">
+        <v>4</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1">
+        <v>4</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1">
+        <v>4</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C137" s="1"/>
+      <c r="D137" s="6">
+        <v>4</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1">
+        <f>SUM(D131:D137)</f>
+        <v>28</v>
+      </c>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1">
+        <v>4</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D142" s="1">
+        <v>4</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1">
+        <v>4</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1">
+        <v>15</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1">
+        <v>4</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1">
+        <v>4</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1">
+        <v>4</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1">
+        <v>4</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="D149" s="6">
+        <v>4</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="D150" s="5">
+        <v>4</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1">
+        <f>SUM(D141:D150)</f>
+        <v>51</v>
+      </c>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1">
+        <v>4</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="1"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D155" s="1">
+        <v>4</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155" s="1"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1">
+        <v>4</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1">
+        <v>4</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1">
+        <v>4</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1">
+        <v>4</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C160" s="1"/>
+      <c r="D160" s="6">
+        <v>4</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1">
+        <f>SUM(D154:D160)</f>
+        <v>28</v>
+      </c>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1">
+        <v>4</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" s="1"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D165" s="1">
+        <v>4</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" s="1"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1">
+        <v>4</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1">
+        <v>15</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1">
+        <v>4</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1">
+        <v>4</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1">
+        <v>4</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1">
+        <v>4</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C172" s="1"/>
+      <c r="D172" s="6">
+        <v>4</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C173" s="1"/>
+      <c r="D173" s="5">
+        <v>4</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1">
+        <f>SUM(D164:D173)</f>
+        <v>51</v>
+      </c>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1">
+        <v>4</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F177" s="1"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D178" s="1">
+        <v>4</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178" s="1"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1">
+        <v>4</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1">
+        <v>4</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1">
+        <f>SUM(D177:D180)</f>
+        <v>16</v>
+      </c>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="8"/>
+      <c r="F183" s="8"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1">
+        <v>4</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F184" s="1"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D185" s="1">
+        <v>4</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F185" s="1"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1">
+        <v>4</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1">
+        <v>15</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1">
+        <v>4</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1">
+        <v>4</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1">
+        <f>SUM(D184:D189)</f>
+        <v>35</v>
+      </c>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="24">
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:F176"/>
+    <mergeCell ref="A183:F183"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="A153:F153"/>
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="A50:F50"/>
     <mergeCell ref="A123:F123"/>
@@ -2624,8 +3644,6 @@
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A32:F32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/참고문서/IOCP 채팅서버 패킷설계.xlsx
+++ b/참고문서/IOCP 채팅서버 패킷설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totol\Desktop\ChattingServer\참고문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{61F74274-2D25-4C75-91BA-D08172073D11}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{479BA830-622C-4950-8FE4-A8BD533234EF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" xr2:uid="{D9DFE31C-F1BC-47CA-9267-43BFB3593CC7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" xr2:uid="{D9DFE31C-F1BC-47CA-9267-43BFB3593CC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="141">
   <si>
     <t>흐름</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -414,14 +414,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Test용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PK_NONE(TEST), 헤더번호:0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -454,14 +446,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Acceleration</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PK_SEND_MOVE_START</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -501,33 +485,104 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>PK_RECV_LOCATION_RENEWAL</t>
+  </si>
+  <si>
+    <t>LocationX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocationY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirectionX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirectionY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C&lt;-&gt;S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServerTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_SEND_HARTBEAT</t>
+  </si>
+  <si>
+    <t>PK_SEND_SERVERTIME</t>
+  </si>
+  <si>
+    <t>PK_RECV_SERVERTIME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_RECV_HARTBEAT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>PK_SEND_LOCATION_RENEWAL</t>
-  </si>
-  <si>
-    <t>PK_SEND_LOCATION_RENEWAL(위치 갱신 보내기), 헤더번호:21</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK_RECV_LOCATION_RENEWAL(위치 갱신 받기), 헤더번호:21</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK_RECV_LOCATION_RENEWAL</t>
-  </si>
-  <si>
-    <t>LocationX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocationY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DirectionX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DirectionY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_SEND_LOCATION_RENEWAL(이동 중 방향 전환 보내기), 헤더번호:21</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_RECV_LOCATION_RENEWAL(이동 중 방향 전환 받기), 헤더번호:22</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_SEND_HARTBEAT(하트 비트 보내기), 헤더번호:23</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_RECV_HARTBEAT(하트 비트 받기), 헤더번호:24</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_SEND_SERVERTIME(서버 시간 보내기), 헤더번호:25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_RECV_SERVERTIME(서버 시간 받기), 헤더번호:26</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_RECV_CHANNAL_JOIN_ANNOUNCE(채널 들어가기 알림), 헤더번호:27</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_RECV_CHANNAL_JOIN_ANNOUNCE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_RECV_CHANNAL_OUT_ANNOUNCE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_RECV_CHANNAL_OUT_ANNOUNCE(채널 나가기 알림), 헤더번호:28</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_RECV_CHANNAL_DATA(채널 내의 데이터를 알림), 헤더번호:29</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_RECV_CHANNAL_DATA</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -666,19 +721,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -691,7 +733,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,17 +749,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1044,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BDCE81-4F2B-4799-B5CB-67339998E8C9}">
-  <dimension ref="A2:F191"/>
+  <dimension ref="A2:H232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1071,14 +1110,14 @@
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
+      <c r="A4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1102,304 +1141,306 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>5</v>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1">
-        <v>4</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="D17">
+        <f>SUM(D10:D15)</f>
+        <v>46</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
         <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D20" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
-        <f>SUM(D15:D20)</f>
-        <v>46</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="D26">
+        <f>SUM(D19:D24)</f>
+        <v>32</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
@@ -1408,154 +1449,154 @@
       <c r="E28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D29" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="D30" s="1">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1">
-        <f>SUM(D24:D29)</f>
-        <v>32</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="1">
         <v>4</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1">
-        <v>15</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1">
-        <v>4</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>83</v>
-      </c>
+        <f>SUM(D28:D35)</f>
+        <v>65</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1">
-        <v>15</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A38" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B39" s="1" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1">
@@ -1564,117 +1605,115 @@
       <c r="E39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="D40" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
-        <f>SUM(D33:D40)</f>
-        <v>65</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
-        <v>4</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>11</v>
-      </c>
+        <f>SUM(D39:D42)</f>
+        <v>13</v>
+      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" s="1">
-        <v>4</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="1"/>
+      <c r="A45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B46" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="D47" s="1">
         <v>4</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
@@ -1688,25 +1727,25 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1">
-        <f>SUM(D44:D47)</f>
-        <v>13</v>
+        <f>SUM(D46:D47)</f>
+        <v>8</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
+      <c r="A50" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>7</v>
@@ -1726,7 +1765,7 @@
         <v>8</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D52" s="1">
         <v>4</v>
@@ -1738,100 +1777,102 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1">
-        <f>SUM(D51:D52)</f>
-        <v>8</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1">
+        <v>4</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D57" s="1">
-        <v>4</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-      <c r="B58" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>33</v>
-      </c>
+        <f>SUM(D51:D56)</f>
+        <v>81</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1">
-        <v>4</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A59" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B60" s="1" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1">
@@ -1840,90 +1881,90 @@
       <c r="E60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D61" s="1">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="C62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="D62" s="1">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1">
-        <f>SUM(D56:D61)</f>
-        <v>81</v>
-      </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1">
-        <v>4</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>11</v>
-      </c>
+        <f>SUM(D60:D63)</f>
+        <v>27</v>
+      </c>
+      <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D66" s="1">
-        <v>4</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="1"/>
+      <c r="A66" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B67" s="1" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1">
@@ -1932,464 +1973,464 @@
       <c r="E67" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D68" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1">
-        <f>SUM(D65:D68)</f>
-        <v>27</v>
-      </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1">
-        <v>4</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>11</v>
-      </c>
+        <f>SUM(D67:D70)</f>
+        <v>13</v>
+      </c>
+      <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D73" s="1">
-        <v>4</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="1"/>
+      <c r="A73" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B74" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C75" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="D75" s="1">
         <v>4</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
+      <c r="D76" s="1">
+        <v>4</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="1">
-        <f>SUM(D72:D75)</f>
-        <v>13</v>
-      </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1">
+        <f>SUM(D74:D76)</f>
+        <v>12</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" s="1" t="s">
+      <c r="A79" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1">
-        <v>4</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="C80" s="1"/>
       <c r="D80" s="1">
         <v>4</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D81" s="1">
         <v>4</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+      <c r="B82" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+      <c r="B83" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1">
-        <f>SUM(D79:D81)</f>
+        <v>4</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1">
-        <v>4</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>11</v>
-      </c>
+        <f>SUM(D80:D83)</f>
+        <v>13</v>
+      </c>
+      <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D86" s="1">
-        <v>4</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="1"/>
+      <c r="A86" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B87" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C88" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D88" s="1">
         <v>4</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+      <c r="B89" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="C89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="D89" s="1">
+        <v>4</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
+      <c r="B90" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1">
-        <f>SUM(D85:D88)</f>
-        <v>13</v>
-      </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" s="1" t="s">
+      <c r="A92" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1">
-        <v>4</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="C93" s="1"/>
       <c r="D93" s="1">
         <v>4</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C94" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="D94" s="1">
         <v>4</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+      <c r="B96" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+      <c r="D96" s="1">
+        <v>15</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
+      <c r="A97" s="1"/>
+      <c r="B97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1">
+        <v>4</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A98" s="1"/>
       <c r="B98" s="1" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
-      <c r="B99" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D99" s="1">
-        <v>4</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
-      <c r="B100" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1">
-        <v>4</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>87</v>
-      </c>
+        <f>SUM(D93:D98)</f>
+        <v>95</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1">
-        <v>15</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A101" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="1"/>
+      <c r="A102" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B102" s="1" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1">
@@ -2398,25 +2439,23 @@
       <c r="E102" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C103" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D103" s="1">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F103" s="1"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
@@ -2430,25 +2469,25 @@
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1">
-        <f>SUM(D98:D103)</f>
-        <v>95</v>
+        <f>SUM(D102:D103)</f>
+        <v>8</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
+      <c r="A106" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>7</v>
@@ -2468,7 +2507,7 @@
         <v>8</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D108" s="1">
         <v>4</v>
@@ -2480,95 +2519,95 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+      <c r="B109" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
+      <c r="D109" s="1">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+      <c r="B110" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1">
-        <f>SUM(D107:D108)</f>
-        <v>8</v>
-      </c>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1">
-        <v>4</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>11</v>
-      </c>
+        <f>SUM(D107:D110)</f>
+        <v>13</v>
+      </c>
+      <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D113" s="1">
-        <v>4</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F113" s="1"/>
+      <c r="A113" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="1"/>
+      <c r="A114" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B114" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F114" s="1"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C115" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D115" s="1">
         <v>4</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="F115" s="1"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
@@ -2582,25 +2621,25 @@
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1">
-        <f>SUM(D112:D115)</f>
-        <v>13</v>
+        <f>SUM(D114:D115)</f>
+        <v>8</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
+      <c r="A118" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>7</v>
@@ -2620,7 +2659,7 @@
         <v>8</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D120" s="1">
         <v>4</v>
@@ -2632,1018 +2671,1559 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+      <c r="B121" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
+      <c r="D121" s="1">
+        <v>1</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+      <c r="B122" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1">
-        <f>SUM(D119:D120)</f>
-        <v>8</v>
-      </c>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1">
-        <v>4</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>11</v>
-      </c>
+        <f>SUM(D119:D122)</f>
+        <v>13</v>
+      </c>
+      <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D125" s="1">
-        <v>4</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" s="1"/>
+      <c r="A125" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="1"/>
+      <c r="A126" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B126" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F126" s="1"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C127" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D127" s="1">
         <v>4</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="F127" s="1"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
+      <c r="B128" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="C128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
+      <c r="D128" s="1">
+        <v>4</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
+      <c r="B129" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1">
-        <f>SUM(D124:D127)</f>
-        <v>13</v>
-      </c>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
+      <c r="A130" s="1"/>
+      <c r="B130" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1">
+        <v>4</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A131" s="1"/>
       <c r="B131" s="1" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1">
         <v>4</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F131" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
-      <c r="B132" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D132" s="1">
-        <v>4</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
-      <c r="B133" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1">
-        <v>4</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>114</v>
-      </c>
+        <f>SUM(D126:D131)</f>
+        <v>24</v>
+      </c>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1">
-        <v>4</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="A134" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="1"/>
+      <c r="A135" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B135" s="1" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1">
         <v>4</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F135" s="1"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C136" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="D136" s="1">
         <v>4</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F136" s="1"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C137" s="1"/>
-      <c r="D137" s="6">
+      <c r="D137" s="1">
         <v>4</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
+      <c r="B138" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C138" s="1"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
+      <c r="D138" s="1">
+        <v>15</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
+      <c r="B139" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1">
-        <f>SUM(D131:D137)</f>
-        <v>28</v>
-      </c>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1">
+        <v>4</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1">
         <v>4</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C142" s="1"/>
       <c r="D142" s="1">
         <v>4</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F142" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C143" s="1"/>
-      <c r="D143" s="1">
+      <c r="D143" s="5">
         <v>4</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
-      <c r="B144" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B144" s="1"/>
       <c r="C144" s="1"/>
-      <c r="D144" s="1">
-        <v>15</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="D144" s="4"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
-      <c r="B145" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1">
-        <v>4</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>114</v>
-      </c>
+        <f>SUM(D135:D143)</f>
+        <v>47</v>
+      </c>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1">
-        <v>4</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="A146" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="1"/>
+      <c r="A147" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B147" s="1" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1">
         <v>4</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F147" s="1"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C148" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="D148" s="1">
         <v>4</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F148" s="1"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C149" s="1"/>
-      <c r="D149" s="6">
+      <c r="D149" s="1">
         <v>4</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C150" s="1"/>
-      <c r="D150" s="5">
+      <c r="D150" s="1">
         <v>4</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
+      <c r="B151" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="C151" s="1"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
+      <c r="D151" s="1">
+        <v>4</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
+      <c r="B152" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1">
-        <f>SUM(D141:D150)</f>
-        <v>51</v>
-      </c>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1">
-        <v>4</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>11</v>
-      </c>
+        <f>SUM(D147:D152)</f>
+        <v>24</v>
+      </c>
+      <c r="E154" s="1"/>
       <c r="F154" s="1"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D155" s="1">
-        <v>4</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F155" s="1"/>
+      <c r="A155" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="1"/>
+      <c r="A156" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B156" s="1" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1">
         <v>4</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F156" s="1"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C157" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="D157" s="1">
         <v>4</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>115</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F157" s="1"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1">
         <v>4</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C160" s="1"/>
-      <c r="D160" s="6">
+      <c r="D160" s="1">
         <v>4</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
+      <c r="B161" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="C161" s="1"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
+      <c r="D161" s="1">
+        <v>4</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
+      <c r="B162" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1">
-        <f>SUM(D154:D160)</f>
-        <v>28</v>
-      </c>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B163" s="8"/>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
+      <c r="A163" s="1"/>
+      <c r="B163" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1">
+        <v>4</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
       <c r="C164" s="1"/>
-      <c r="D164" s="1">
-        <v>4</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="D164" s="4"/>
+      <c r="E164" s="1"/>
       <c r="F164" s="1"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
-      <c r="B165" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
       <c r="D165" s="1">
-        <v>4</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>12</v>
-      </c>
+        <f>SUM(D156:D163)</f>
+        <v>43</v>
+      </c>
+      <c r="E165" s="1"/>
       <c r="F165" s="1"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1">
-        <v>4</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="A166" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B166" s="6"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="1"/>
+      <c r="A167" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B167" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F167" s="1"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C168" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="D168" s="1">
         <v>4</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F168" s="1"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1">
         <v>4</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1">
         <v>4</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1">
         <v>4</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C172" s="1"/>
-      <c r="D172" s="6">
+      <c r="D172" s="1">
         <v>4</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
-      <c r="B173" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="B173" s="1"/>
       <c r="C173" s="1"/>
-      <c r="D173" s="5">
-        <v>4</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
-      <c r="D174" s="4"/>
+      <c r="D174" s="4">
+        <f>SUM(D167:D172)</f>
+        <v>24</v>
+      </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1">
-        <f>SUM(D164:D173)</f>
-        <v>51</v>
-      </c>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
+      <c r="A175" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B175" s="6"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B176" s="8"/>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
-      <c r="F176" s="8"/>
+      <c r="A176" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1">
+        <v>4</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" s="1"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A177" s="1"/>
       <c r="B177" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C177" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="D177" s="1">
         <v>4</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" s="1"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C178" s="1"/>
       <c r="D178" s="1">
         <v>4</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F178" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1">
         <v>4</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
+      <c r="B181" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="C181" s="1"/>
-      <c r="D181" s="4"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
+      <c r="D181" s="1">
+        <v>4</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
+      <c r="B182" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1">
-        <f>SUM(D177:D180)</f>
-        <v>16</v>
-      </c>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
-      <c r="F183" s="8"/>
+      <c r="A183" s="1"/>
+      <c r="B183" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1">
+        <v>4</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
       <c r="C184" s="1"/>
-      <c r="D184" s="1">
-        <v>4</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E184" s="1"/>
       <c r="F184" s="1"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
-      <c r="B185" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D185" s="1">
-        <v>4</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="4">
+        <f>SUM(D176:D183)</f>
+        <v>43</v>
+      </c>
+      <c r="E185" s="1"/>
       <c r="F185" s="1"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1">
-        <v>4</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="A186" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="1"/>
+      <c r="A187" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B187" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F187" s="1"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C188" s="1"/>
       <c r="D188" s="1">
         <v>4</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F188" s="1"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
-      <c r="B189" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="B189" s="1"/>
       <c r="C189" s="1"/>
-      <c r="D189" s="1">
-        <v>4</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
-      <c r="D190" s="4"/>
+      <c r="D190" s="1">
+        <f>SUM(D187:D188)</f>
+        <v>8</v>
+      </c>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1">
-        <f>SUM(D184:D189)</f>
-        <v>35</v>
-      </c>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
+      <c r="A191" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1">
+        <v>4</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F192" s="1"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D193" s="1">
+        <v>4</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F193" s="1"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1">
+        <f>SUM(D192:D193)</f>
+        <v>8</v>
+      </c>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B196" s="6"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="6"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1">
+        <v>4</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F197" s="1"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D198" s="1">
+        <v>4</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F198" s="1"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1">
+        <v>4</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F199" s="1"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1">
+        <f>SUM(D197:D200)</f>
+        <v>12</v>
+      </c>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B202" s="6"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1">
+        <v>4</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F203" s="1"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D204" s="1">
+        <v>4</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F204" s="1"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1">
+        <f>SUM(D203:D205)</f>
+        <v>8</v>
+      </c>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B207" s="6"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="6"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1">
+        <v>4</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F208" s="1"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D209" s="1">
+        <v>4</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F209" s="1"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1">
+        <v>4</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1">
+        <v>15</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1">
+        <f>SUM(D208:D211)</f>
+        <v>27</v>
+      </c>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+      <c r="F214" s="6"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1">
+        <v>4</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F215" s="1"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D216" s="1">
+        <v>4</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F216" s="1"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1">
+        <v>4</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1">
+        <v>15</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1">
+        <f>SUM(D215:D218)</f>
+        <v>27</v>
+      </c>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B221" s="6"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+      <c r="F221" s="6"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1">
+        <v>4</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F222" s="1"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D223" s="1">
+        <v>4</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F223" s="1"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1">
+        <v>4</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1">
+        <v>15</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H225" s="1"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C226" s="1"/>
+      <c r="D226" s="4">
+        <v>4</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F226" s="1"/>
+      <c r="H226" s="1"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C227" s="1"/>
+      <c r="D227" s="4">
+        <v>4</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F227" s="1"/>
+      <c r="H227" s="1"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C228" s="1"/>
+      <c r="D228" s="4">
+        <v>4</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F228" s="1"/>
+      <c r="H228" s="1"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C229" s="1"/>
+      <c r="D229" s="4">
+        <v>4</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F229" s="1"/>
+      <c r="H229" s="1"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C230" s="1"/>
+      <c r="D230" s="4">
+        <v>4</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F230" s="1"/>
+      <c r="H230" s="1"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="H231" s="1"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1">
+        <f>SUM(D222:D230)</f>
+        <v>47</v>
+      </c>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="H232" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:F176"/>
-    <mergeCell ref="A183:F183"/>
+  <mergeCells count="31">
+    <mergeCell ref="A207:F207"/>
+    <mergeCell ref="A214:F214"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A166:F166"/>
+    <mergeCell ref="A175:F175"/>
+    <mergeCell ref="A196:F196"/>
+    <mergeCell ref="A202:F202"/>
+    <mergeCell ref="A186:F186"/>
+    <mergeCell ref="A191:F191"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="A146:F146"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A221:F221"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="A153:F153"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A125:F125"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
